--- a/csdata/Fe/SI/Fe2+.xlsx
+++ b/csdata/Fe/SI/Fe2+.xlsx
@@ -1,17 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gmondeel/Documents/CfA/Chandra/CHANDRA-Rates/csdata/Fe/SI/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B9A1A13-E8D8-224E-B431-5BF7EC5A4962}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-20" yWindow="780" windowWidth="15140" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Energy (eV)</t>
   </si>
@@ -30,29 +52,42 @@
   <si>
     <t>Electron impact single ionization of multiply charged iron ions Stenke 1999</t>
   </si>
+  <si>
+    <t>Unc at peak</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -60,51 +95,54 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="4" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -294,20 +332,25 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:F64"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -323,211 +366,232 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2">
+      <c r="F1" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3">
-        <v>17.9800731393743</v>
+        <v>17.980073139374301</v>
       </c>
       <c r="B2" s="4">
-        <v>0.187366167023553</v>
+        <v>0.18736616702355299</v>
       </c>
       <c r="C2" s="4">
-        <v>0.119914346895075</v>
+        <v>0.11991434689507501</v>
       </c>
       <c r="D2" s="5">
-        <v>-17.0</v>
+        <v>-17</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3">
+      <c r="F2">
+        <f>_xlfn.XLOOKUP(MAX(B:B),B:B,C:C)/MAX(B:B)</f>
+        <v>3.9070749736009068E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3">
-        <v>19.9999999999999</v>
+        <v>19.999999999999901</v>
       </c>
       <c r="B3" s="4">
-        <v>0.142398286937901</v>
+        <v>0.14239828693790099</v>
       </c>
       <c r="C3" s="4">
-        <v>0.06745182012847951</v>
+        <v>6.7451820128479514E-2</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
-        <v>22.9877137688529</v>
+        <v>22.987713768852899</v>
       </c>
       <c r="B4" s="4">
         <v>0.337259100642397</v>
       </c>
       <c r="C4" s="4">
-        <v>0.0562098501070665</v>
+        <v>5.62098501070665E-2</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3">
-        <v>25.9924935164823</v>
+        <v>25.992493516482298</v>
       </c>
       <c r="B5" s="4">
         <v>1.05674518201284</v>
       </c>
       <c r="C5" s="4">
-        <v>0.06370449678801005</v>
-      </c>
+        <v>6.3704496788010045E-2</v>
+      </c>
+      <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
-        <v>28.9915936950579</v>
+        <v>28.991593695057901</v>
       </c>
       <c r="B6" s="4">
         <v>1.7237687366167</v>
       </c>
       <c r="C6" s="4">
-        <v>0.08244111349036498</v>
-      </c>
+        <v>8.2441113490364981E-2</v>
+      </c>
+      <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="3">
         <v>31.9855498087468</v>
       </c>
       <c r="B7" s="4">
-        <v>2.51820128479657</v>
+        <v>2.5182012847965698</v>
       </c>
       <c r="C7" s="4">
         <v>0.10867237687366016</v>
       </c>
+      <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
-        <v>35.9695311097586</v>
+        <v>35.969531109758599</v>
       </c>
       <c r="B8" s="4">
-        <v>3.29014989293361</v>
+        <v>3.2901498929336102</v>
       </c>
       <c r="C8" s="4">
-        <v>0.13865096359743</v>
-      </c>
+        <v>0.13865096359743001</v>
+      </c>
+      <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="3">
-        <v>40.0104391466455</v>
+        <v>40.010439146645503</v>
       </c>
       <c r="B9" s="4">
-        <v>3.85224839400428</v>
+        <v>3.8522483940042802</v>
       </c>
       <c r="C9" s="4">
         <v>0.15364025695931494</v>
       </c>
-    </row>
-    <row r="10">
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
-        <v>44.9939658441267</v>
+        <v>44.993965844126699</v>
       </c>
       <c r="B10" s="4">
-        <v>4.51927194860813</v>
+        <v>4.5192719486081296</v>
       </c>
       <c r="C10" s="4">
-        <v>0.176124197002145</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>0.17612419700214499</v>
+      </c>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
         <v>50.0487016880871</v>
       </c>
       <c r="B11" s="4">
-        <v>5.11134903640256</v>
+        <v>5.1113490364025598</v>
       </c>
       <c r="C11" s="4">
         <v>0.20235546038544028</v>
       </c>
-    </row>
-    <row r="12">
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
-        <v>55.9760907305136</v>
+        <v>55.976090730513597</v>
       </c>
       <c r="B12" s="4">
-        <v>5.85331905781584</v>
+        <v>5.8533190578158401</v>
       </c>
       <c r="C12" s="4">
         <v>0.224839400428265</v>
       </c>
-    </row>
-    <row r="13">
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
-        <v>61.9255538071779</v>
+        <v>61.925553807177899</v>
       </c>
       <c r="B13" s="4">
-        <v>6.23554603854389</v>
+        <v>6.2355460385438901</v>
       </c>
       <c r="C13" s="4">
         <v>0.24357601713062005</v>
       </c>
-    </row>
-    <row r="14">
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
-        <v>70.0199929415585</v>
+        <v>70.019992941558499</v>
       </c>
       <c r="B14" s="4">
-        <v>6.63276231263383</v>
+        <v>6.6327623126338304</v>
       </c>
       <c r="C14" s="4">
         <v>0.25481798715203485</v>
       </c>
-    </row>
-    <row r="15">
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
-        <v>80.0417620353711</v>
+        <v>80.041762035371093</v>
       </c>
       <c r="B15" s="4">
-        <v>6.95503211991434</v>
+        <v>6.9550321199143399</v>
       </c>
       <c r="C15" s="4">
         <v>0.2735546038543899</v>
       </c>
-    </row>
-    <row r="16">
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
-        <v>90.011416618634</v>
+        <v>90.011416618634001</v>
       </c>
       <c r="B16" s="4">
         <v>7.09743040685224</v>
       </c>
       <c r="C16" s="4">
-        <v>0.2773019271948649</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>0.27730192719486491</v>
+      </c>
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
-        <v>99.8505668693638</v>
+        <v>99.850566869363803</v>
       </c>
       <c r="B17" s="4">
-        <v>7.05995717344753</v>
+        <v>7.0599571734475299</v>
       </c>
       <c r="C17" s="4">
-        <v>0.27730192719486</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>0.27730192719486002</v>
+      </c>
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
         <v>115.080548622848</v>
       </c>
       <c r="B18" s="4">
-        <v>7.04496788008565</v>
+        <v>7.0449678800856503</v>
       </c>
       <c r="C18" s="4">
-        <v>0.27730192719486</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>0.27730192719486002</v>
+      </c>
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="3">
-        <v>129.768260598451</v>
+        <v>129.76826059845101</v>
       </c>
       <c r="B19" s="4">
         <v>6.99250535331905</v>
@@ -535,353 +599,374 @@
       <c r="C19" s="4">
         <v>0.2735546038543899</v>
       </c>
-    </row>
-    <row r="20">
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="3">
-        <v>149.970374478877</v>
-      </c>
-      <c r="B20" s="6">
-        <v>6.81263383297644</v>
+        <v>149.97037447887701</v>
+      </c>
+      <c r="B20" s="5">
+        <v>6.8126338329764398</v>
       </c>
       <c r="C20" s="4">
         <v>0.2660599571734501</v>
       </c>
-    </row>
-    <row r="21">
+      <c r="D20" s="2"/>
+    </row>
+    <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="3">
-        <v>170.036925205815</v>
-      </c>
-      <c r="B21" s="6">
-        <v>6.7526766595289</v>
+        <v>170.03692520581501</v>
+      </c>
+      <c r="B21" s="5">
+        <v>6.7526766595289001</v>
       </c>
       <c r="C21" s="4">
-        <v>0.26231263383298</v>
-      </c>
-    </row>
-    <row r="22">
+        <v>0.26231263383297998</v>
+      </c>
+      <c r="D21" s="2"/>
+    </row>
+    <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="3">
-        <v>189.656350038058</v>
-      </c>
-      <c r="B22" s="6">
-        <v>6.63276231263383</v>
+        <v>189.65635003805801</v>
+      </c>
+      <c r="B22" s="5">
+        <v>6.6327623126338304</v>
       </c>
       <c r="C22" s="4">
         <v>0.25481798715203485</v>
       </c>
-    </row>
-    <row r="23">
+      <c r="D22" s="2"/>
+    </row>
+    <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="3">
-        <v>209.814125207435</v>
-      </c>
-      <c r="B23" s="6">
-        <v>6.48286937901498</v>
+        <v>209.81412520743501</v>
+      </c>
+      <c r="B23" s="5">
+        <v>6.4828693790149803</v>
       </c>
       <c r="C23" s="4">
         <v>0.25107066381156473</v>
       </c>
-    </row>
-    <row r="24">
+      <c r="D23" s="2"/>
+    </row>
+    <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="3">
         <v>239.844244136528</v>
       </c>
-      <c r="B24" s="6">
-        <v>6.29550321199143</v>
+      <c r="B24" s="5">
+        <v>6.2955032119914298</v>
       </c>
       <c r="C24" s="4">
         <v>0.24357601713062005</v>
       </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="6">
-        <v>269.718202518007</v>
-      </c>
-      <c r="B25" s="6">
-        <v>6.07815845824411</v>
+      <c r="D24" s="2"/>
+    </row>
+    <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="5">
+        <v>269.71820251800699</v>
+      </c>
+      <c r="B25" s="5">
+        <v>6.0781584582441104</v>
       </c>
       <c r="C25" s="4">
         <v>0.23608137044967492</v>
       </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="6">
-        <v>300.019027094339</v>
-      </c>
-      <c r="B26" s="6">
-        <v>5.86830835117772</v>
+      <c r="D25" s="2"/>
+    </row>
+    <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="5">
+        <v>300.01902709433898</v>
+      </c>
+      <c r="B26" s="5">
+        <v>5.8683083511777197</v>
       </c>
       <c r="C26" s="4">
         <v>0.23233404710921013</v>
       </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="6">
-        <v>330.09954483835</v>
-      </c>
-      <c r="B27" s="6">
-        <v>5.67344753747323</v>
+      <c r="D26" s="2"/>
+    </row>
+    <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="5">
+        <v>330.09954483835003</v>
+      </c>
+      <c r="B27" s="5">
+        <v>5.6734475374732298</v>
       </c>
       <c r="C27" s="4">
         <v>0.2173447537473252</v>
       </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="6">
-        <v>359.2515396589</v>
-      </c>
-      <c r="B28" s="6">
-        <v>5.5085653104925</v>
+      <c r="D27" s="2"/>
+    </row>
+    <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="5">
+        <v>359.25153965890001</v>
+      </c>
+      <c r="B28" s="5">
+        <v>5.5085653104925001</v>
       </c>
       <c r="C28" s="4">
         <v>0.21359743040685508</v>
       </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="6">
-        <v>389.912130828548</v>
-      </c>
-      <c r="B29" s="6">
-        <v>5.38115631691648</v>
+      <c r="D28" s="2"/>
+    </row>
+    <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="5">
+        <v>389.91213082854802</v>
+      </c>
+      <c r="B29" s="5">
+        <v>5.3811563169164804</v>
       </c>
       <c r="C29" s="4">
         <v>0.20610278372590995</v>
       </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="6">
+      <c r="D29" s="2"/>
+    </row>
+    <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="5">
         <v>419.737764435938</v>
       </c>
-      <c r="B30" s="6">
-        <v>5.20128479657387</v>
+      <c r="B30" s="5">
+        <v>5.2012847965738702</v>
       </c>
       <c r="C30" s="4">
         <v>0.20235546038543983</v>
       </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="6">
-        <v>459.306894954372</v>
-      </c>
-      <c r="B31" s="6">
-        <v>5.0289079229122</v>
+      <c r="D30" s="2"/>
+    </row>
+    <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="5">
+        <v>459.30689495437201</v>
+      </c>
+      <c r="B31" s="5">
+        <v>5.0289079229122002</v>
       </c>
       <c r="C31" s="4">
-        <v>0.1986081370449697</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="6">
-        <v>499.869544712977</v>
-      </c>
-      <c r="B32" s="6">
-        <v>4.79657387580299</v>
+        <v>0.19860813704496971</v>
+      </c>
+      <c r="D31" s="2"/>
+    </row>
+    <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="5">
+        <v>499.86954471297702</v>
+      </c>
+      <c r="B32" s="5">
+        <v>4.7965738758029897</v>
       </c>
       <c r="C32" s="4">
         <v>0.18736616702355535</v>
       </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="6">
-        <v>548.488089203107</v>
-      </c>
-      <c r="B33" s="6">
-        <v>4.60920770877944</v>
+      <c r="D32" s="2"/>
+    </row>
+    <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="5">
+        <v>548.48808920310705</v>
+      </c>
+      <c r="B33" s="5">
+        <v>4.6092077087794401</v>
       </c>
       <c r="C33" s="4">
         <v>0.17987152034260978</v>
       </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="6">
-        <v>600.194651319693</v>
-      </c>
-      <c r="B34" s="6">
-        <v>4.42184154175588</v>
+      <c r="D33" s="2"/>
+    </row>
+    <row r="34" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="5">
+        <v>600.19465131969298</v>
+      </c>
+      <c r="B34" s="5">
+        <v>4.4218415417558798</v>
       </c>
       <c r="C34" s="4">
         <v>0.17237687366166998</v>
       </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="6">
-        <v>660.37138755451</v>
-      </c>
-      <c r="B35" s="6">
-        <v>4.17451820128479</v>
+      <c r="D34" s="2"/>
+    </row>
+    <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="5">
+        <v>660.37138755450997</v>
+      </c>
+      <c r="B35" s="5">
+        <v>4.1745182012847897</v>
       </c>
       <c r="C35" s="4">
         <v>0.16113490364026006</v>
       </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="6">
-        <v>728.567809381818</v>
-      </c>
-      <c r="B36" s="6">
+      <c r="D35" s="2"/>
+    </row>
+    <row r="36" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="5">
+        <v>728.56780938181805</v>
+      </c>
+      <c r="B36" s="5">
         <v>3.96466809421841</v>
       </c>
       <c r="C36" s="4">
         <v>0.15738758029978483</v>
       </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="6">
-        <v>810.416958523194</v>
-      </c>
-      <c r="B37" s="6">
-        <v>3.73982869379015</v>
+      <c r="D36" s="2"/>
+    </row>
+    <row r="37" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="5">
+        <v>810.41695852319401</v>
+      </c>
+      <c r="B37" s="5">
+        <v>3.7398286937901499</v>
       </c>
       <c r="C37" s="4">
         <v>0.14989293361883993</v>
       </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="6">
-        <v>899.003656968716</v>
-      </c>
-      <c r="B38" s="6">
-        <v>3.50749464668094</v>
+      <c r="D37" s="2"/>
+    </row>
+    <row r="38" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="5">
+        <v>899.00365696871597</v>
+      </c>
+      <c r="B38" s="5">
+        <v>3.5074946466809398</v>
       </c>
       <c r="C38" s="4">
-        <v>0.1349036402569601</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="6">
-        <v>999.999999999999</v>
-      </c>
-      <c r="B39" s="6">
-        <v>3.29014989293361</v>
+        <v>0.13490364025696011</v>
+      </c>
+      <c r="D38" s="2"/>
+    </row>
+    <row r="39" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="5">
+        <v>999.99999999999898</v>
+      </c>
+      <c r="B39" s="5">
+        <v>3.2901498929336102</v>
       </c>
       <c r="C39" s="4">
         <v>0.12740899357601987</v>
       </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="6"/>
-      <c r="B40" s="6"/>
+      <c r="D39" s="2"/>
+    </row>
+    <row r="40" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="5"/>
+      <c r="B40" s="5"/>
       <c r="C40" s="4"/>
     </row>
-    <row r="41">
-      <c r="A41" s="6"/>
-      <c r="B41" s="6"/>
+    <row r="41" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="5"/>
+      <c r="B41" s="5"/>
       <c r="C41" s="4"/>
     </row>
-    <row r="42">
-      <c r="A42" s="6"/>
-      <c r="B42" s="6"/>
+    <row r="42" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="5"/>
+      <c r="B42" s="5"/>
       <c r="C42" s="4"/>
     </row>
-    <row r="43">
-      <c r="A43" s="6"/>
-      <c r="B43" s="6"/>
+    <row r="43" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="5"/>
+      <c r="B43" s="5"/>
       <c r="C43" s="4"/>
     </row>
-    <row r="44">
-      <c r="A44" s="6"/>
-      <c r="B44" s="6"/>
+    <row r="44" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="5"/>
+      <c r="B44" s="5"/>
       <c r="C44" s="4"/>
     </row>
-    <row r="45">
-      <c r="A45" s="6"/>
-      <c r="B45" s="6"/>
+    <row r="45" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="5"/>
+      <c r="B45" s="5"/>
       <c r="C45" s="4"/>
     </row>
-    <row r="46">
-      <c r="A46" s="6"/>
-      <c r="B46" s="6"/>
+    <row r="46" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="5"/>
+      <c r="B46" s="5"/>
       <c r="C46" s="4"/>
     </row>
-    <row r="47">
-      <c r="A47" s="6"/>
-      <c r="B47" s="6"/>
+    <row r="47" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="5"/>
+      <c r="B47" s="5"/>
       <c r="C47" s="4"/>
     </row>
-    <row r="48">
-      <c r="A48" s="6"/>
-      <c r="B48" s="6"/>
+    <row r="48" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="5"/>
+      <c r="B48" s="5"/>
       <c r="C48" s="4"/>
     </row>
-    <row r="49">
-      <c r="A49" s="6"/>
-      <c r="B49" s="6"/>
+    <row r="49" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="5"/>
+      <c r="B49" s="5"/>
       <c r="C49" s="4"/>
     </row>
-    <row r="50">
-      <c r="A50" s="6"/>
-      <c r="B50" s="6"/>
+    <row r="50" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A50" s="5"/>
+      <c r="B50" s="5"/>
       <c r="C50" s="4"/>
     </row>
-    <row r="51">
-      <c r="A51" s="6"/>
-      <c r="B51" s="6"/>
+    <row r="51" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A51" s="5"/>
+      <c r="B51" s="5"/>
       <c r="C51" s="4"/>
     </row>
-    <row r="52">
-      <c r="A52" s="6"/>
-      <c r="B52" s="6"/>
+    <row r="52" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A52" s="5"/>
+      <c r="B52" s="5"/>
       <c r="C52" s="4"/>
     </row>
-    <row r="53">
-      <c r="A53" s="6"/>
-      <c r="B53" s="6"/>
+    <row r="53" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A53" s="5"/>
+      <c r="B53" s="5"/>
       <c r="C53" s="4"/>
     </row>
-    <row r="54">
-      <c r="A54" s="6"/>
-      <c r="B54" s="6"/>
+    <row r="54" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A54" s="5"/>
+      <c r="B54" s="5"/>
       <c r="C54" s="4"/>
     </row>
-    <row r="55">
-      <c r="A55" s="6"/>
-      <c r="B55" s="6"/>
+    <row r="55" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A55" s="5"/>
+      <c r="B55" s="5"/>
       <c r="C55" s="4"/>
     </row>
-    <row r="56">
-      <c r="A56" s="6"/>
-      <c r="B56" s="6"/>
+    <row r="56" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A56" s="5"/>
+      <c r="B56" s="5"/>
       <c r="C56" s="4"/>
     </row>
-    <row r="57">
-      <c r="A57" s="6"/>
-      <c r="B57" s="6"/>
+    <row r="57" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A57" s="5"/>
+      <c r="B57" s="5"/>
       <c r="C57" s="4"/>
     </row>
-    <row r="58">
-      <c r="A58" s="6"/>
-      <c r="B58" s="6"/>
+    <row r="58" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A58" s="5"/>
+      <c r="B58" s="5"/>
       <c r="C58" s="4"/>
     </row>
-    <row r="59">
-      <c r="A59" s="6"/>
-      <c r="B59" s="6"/>
+    <row r="59" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A59" s="5"/>
+      <c r="B59" s="5"/>
       <c r="C59" s="4"/>
     </row>
-    <row r="60">
-      <c r="A60" s="6"/>
-      <c r="B60" s="6"/>
+    <row r="60" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A60" s="5"/>
+      <c r="B60" s="5"/>
       <c r="C60" s="4"/>
     </row>
-    <row r="61">
-      <c r="A61" s="6"/>
-      <c r="B61" s="6"/>
+    <row r="61" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A61" s="5"/>
+      <c r="B61" s="5"/>
       <c r="C61" s="4"/>
     </row>
-    <row r="62">
-      <c r="A62" s="6"/>
-      <c r="B62" s="6"/>
+    <row r="62" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A62" s="5"/>
+      <c r="B62" s="5"/>
       <c r="C62" s="4"/>
     </row>
-    <row r="63">
-      <c r="A63" s="6"/>
-      <c r="B63" s="6"/>
+    <row r="63" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A63" s="5"/>
+      <c r="B63" s="5"/>
       <c r="C63" s="4"/>
     </row>
-    <row r="64">
-      <c r="A64" s="6"/>
-      <c r="B64" s="6"/>
+    <row r="64" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A64" s="5"/>
+      <c r="B64" s="5"/>
       <c r="C64" s="4"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>